--- a/user_input_data/BD_LCA.xlsx
+++ b/user_input_data/BD_LCA.xlsx
@@ -231,12 +231,13 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13"/>
   </cols>
@@ -293,8 +294,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="1" t="n">
-        <f aca="false">0.001*0.000854</f>
-        <v>8.54E-007</v>
+        <v>1.364E-007</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>0</v>
@@ -308,9 +308,8 @@
       <c r="J2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="0" t="n">
-        <f aca="false">0.001*1.17</f>
-        <v>0.00117</v>
+      <c r="K2" s="1" t="n">
+        <v>0.0001876</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -370,10 +369,10 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.85"/>
@@ -433,8 +432,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="1" t="n">
-        <f aca="false">0.001*0.000332</f>
-        <v>3.32E-007</v>
+        <v>5.301E-008</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>0</v>
@@ -449,8 +447,7 @@
         <v>15</v>
       </c>
       <c r="K2" s="1" t="n">
-        <f aca="false">0.001*0.0832</f>
-        <v>8.32E-005</v>
+        <v>1.329E-005</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -509,10 +506,10 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.14"/>
@@ -571,8 +568,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="1" t="n">
-        <f aca="false">0.001*0.0286</f>
-        <v>2.86E-005</v>
+        <v>4.576E-006</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>0</v>
@@ -586,9 +582,8 @@
       <c r="J2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="0" t="n">
-        <f aca="false">0.001*1.97</f>
-        <v>0.00197</v>
+      <c r="K2" s="1" t="n">
+        <v>0.0003155</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -648,7 +643,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -711,8 +706,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="1" t="n">
-        <f aca="false">0.001*0.0000469</f>
-        <v>4.69E-008</v>
+        <v>7.503E-009</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>0</v>
@@ -727,8 +721,7 @@
         <v>15</v>
       </c>
       <c r="K2" s="1" t="n">
-        <f aca="false">0.001*0.179</f>
-        <v>0.000179</v>
+        <v>2.854E-005</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -782,7 +775,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -843,9 +836,8 @@
       <c r="E2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <f aca="false">0.001*233.07</f>
-        <v>0.23307</v>
+      <c r="F2" s="1" t="n">
+        <v>0.03725</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>0</v>
@@ -860,8 +852,7 @@
         <v>15</v>
       </c>
       <c r="K2" s="1" t="n">
-        <f aca="false">0.001*60.69</f>
-        <v>0.06069</v>
+        <v>0.001069</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -915,7 +906,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -977,8 +968,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="1" t="n">
-        <f aca="false">0.001*0.0143</f>
-        <v>1.43E-005</v>
+        <v>2.288E-006</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>0</v>
@@ -993,8 +983,7 @@
         <v>15</v>
       </c>
       <c r="K2" s="1" t="n">
-        <f aca="false">0.001*15.1</f>
-        <v>0.0151</v>
+        <v>0.002413</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1048,7 +1037,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+      <selection pane="topLeft" activeCell="M17" activeCellId="0" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1125,8 +1114,7 @@
         <v>15</v>
       </c>
       <c r="K2" s="1" t="n">
-        <f aca="false">0.001*42.59</f>
-        <v>0.04259</v>
+        <v>0.006807</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1180,7 +1168,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1256,8 +1244,7 @@
         <v>15</v>
       </c>
       <c r="K2" s="1" t="n">
-        <f aca="false">0.001*77.39</f>
-        <v>0.07739</v>
+        <v>0.01237</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
